--- a/Bin_data/Virginia/Virginia60-2.xlsx
+++ b/Bin_data/Virginia/Virginia60-2.xlsx
@@ -374,7 +374,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BD30"/>
+  <dimension ref="A1:BD35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1912,7 +1912,7 @@
     </row>
     <row r="10" spans="1:56">
       <c r="A10" s="1">
-        <v>0.33</v>
+        <v>0.27</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -2026,7 +2026,7 @@
         <v>0</v>
       </c>
       <c r="AM10">
-        <v>0.03487477908</v>
+        <v>0</v>
       </c>
       <c r="AN10">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="AU10">
-        <v>0.06620100144</v>
+        <v>0</v>
       </c>
       <c r="AV10">
         <v>0</v>
@@ -2074,7 +2074,7 @@
         <v>0</v>
       </c>
       <c r="BC10">
-        <v>0.1647910884</v>
+        <v>0</v>
       </c>
       <c r="BD10">
         <v>0</v>
@@ -2082,7 +2082,7 @@
     </row>
     <row r="11" spans="1:56">
       <c r="A11" s="1">
-        <v>0.36</v>
+        <v>0.3</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -2151,7 +2151,7 @@
         <v>0</v>
       </c>
       <c r="X11">
-        <v>1.5037157082</v>
+        <v>0</v>
       </c>
       <c r="Y11">
         <v>0</v>
@@ -2160,19 +2160,19 @@
         <v>0</v>
       </c>
       <c r="AA11">
-        <v>0.52928781936</v>
+        <v>0</v>
       </c>
       <c r="AB11">
-        <v>0.67047458292</v>
+        <v>0</v>
       </c>
       <c r="AC11">
-        <v>0.6368762575200001</v>
+        <v>0</v>
       </c>
       <c r="AD11">
         <v>0</v>
       </c>
       <c r="AE11">
-        <v>1.38258554256</v>
+        <v>0</v>
       </c>
       <c r="AF11">
         <v>0</v>
@@ -2252,7 +2252,7 @@
     </row>
     <row r="12" spans="1:56">
       <c r="A12" s="1">
-        <v>0.39</v>
+        <v>0.33</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -2324,22 +2324,22 @@
         <v>0</v>
       </c>
       <c r="Y12">
-        <v>1.91665007796</v>
+        <v>0</v>
       </c>
       <c r="Z12">
-        <v>2.6364574326</v>
+        <v>0</v>
       </c>
       <c r="AA12">
-        <v>2.09451638028</v>
+        <v>0</v>
       </c>
       <c r="AB12">
-        <v>2.26488383532</v>
+        <v>0</v>
       </c>
       <c r="AC12">
-        <v>2.2523961198</v>
+        <v>0</v>
       </c>
       <c r="AD12">
-        <v>2.42327152308</v>
+        <v>0</v>
       </c>
       <c r="AE12">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="AM12">
-        <v>0</v>
+        <v>0.03487477908</v>
       </c>
       <c r="AN12">
         <v>0</v>
@@ -2390,7 +2390,7 @@
         <v>0</v>
       </c>
       <c r="AU12">
-        <v>0</v>
+        <v>0.06620100144</v>
       </c>
       <c r="AV12">
         <v>0</v>
@@ -2405,7 +2405,7 @@
         <v>0</v>
       </c>
       <c r="AZ12">
-        <v>0.0875975604</v>
+        <v>0</v>
       </c>
       <c r="BA12">
         <v>0</v>
@@ -2414,7 +2414,7 @@
         <v>0</v>
       </c>
       <c r="BC12">
-        <v>0</v>
+        <v>0.1647910884</v>
       </c>
       <c r="BD12">
         <v>0</v>
@@ -2422,7 +2422,7 @@
     </row>
     <row r="13" spans="1:56">
       <c r="A13" s="1">
-        <v>0.42</v>
+        <v>0.36</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -2455,7 +2455,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.12953410344</v>
+        <v>0</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -2491,7 +2491,7 @@
         <v>0</v>
       </c>
       <c r="X13">
-        <v>0</v>
+        <v>1.5037157082</v>
       </c>
       <c r="Y13">
         <v>0</v>
@@ -2500,19 +2500,19 @@
         <v>0</v>
       </c>
       <c r="AA13">
-        <v>0</v>
+        <v>0.52928781936</v>
       </c>
       <c r="AB13">
-        <v>0</v>
+        <v>0.67047458292</v>
       </c>
       <c r="AC13">
-        <v>0</v>
+        <v>0.6368762575200001</v>
       </c>
       <c r="AD13">
         <v>0</v>
       </c>
       <c r="AE13">
-        <v>0</v>
+        <v>1.38258554256</v>
       </c>
       <c r="AF13">
         <v>0</v>
@@ -2560,7 +2560,7 @@
         <v>0</v>
       </c>
       <c r="AU13">
-        <v>0.0951783366</v>
+        <v>0</v>
       </c>
       <c r="AV13">
         <v>0</v>
@@ -2592,7 +2592,7 @@
     </row>
     <row r="14" spans="1:56">
       <c r="A14" s="1">
-        <v>0.45</v>
+        <v>0.39</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -2640,7 +2640,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>0.07731976824</v>
+        <v>0</v>
       </c>
       <c r="R14">
         <v>0</v>
@@ -2664,22 +2664,22 @@
         <v>0</v>
       </c>
       <c r="Y14">
-        <v>0</v>
+        <v>1.91665007796</v>
       </c>
       <c r="Z14">
-        <v>0</v>
+        <v>2.6364574326</v>
       </c>
       <c r="AA14">
-        <v>0</v>
+        <v>2.09451638028</v>
       </c>
       <c r="AB14">
-        <v>0</v>
+        <v>2.26488383532</v>
       </c>
       <c r="AC14">
-        <v>0</v>
+        <v>2.2523961198</v>
       </c>
       <c r="AD14">
-        <v>0</v>
+        <v>2.42327152308</v>
       </c>
       <c r="AE14">
         <v>0</v>
@@ -2721,7 +2721,7 @@
         <v>0</v>
       </c>
       <c r="AR14">
-        <v>0.04650874104</v>
+        <v>0</v>
       </c>
       <c r="AS14">
         <v>0</v>
@@ -2745,7 +2745,7 @@
         <v>0</v>
       </c>
       <c r="AZ14">
-        <v>0</v>
+        <v>0.0875975604</v>
       </c>
       <c r="BA14">
         <v>0</v>
@@ -2762,13 +2762,13 @@
     </row>
     <row r="15" spans="1:56">
       <c r="A15" s="1">
-        <v>0.48</v>
+        <v>0.42</v>
       </c>
       <c r="B15">
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.05193004572000001</v>
+        <v>0</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -2786,25 +2786,25 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.04460717136</v>
+        <v>0</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.08272154496</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.12953410344</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.07690719168</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>0.06971946408</v>
+        <v>0</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -2900,7 +2900,7 @@
         <v>0</v>
       </c>
       <c r="AU15">
-        <v>0</v>
+        <v>0.0951783366</v>
       </c>
       <c r="AV15">
         <v>0</v>
@@ -2932,7 +2932,7 @@
     </row>
     <row r="16" spans="1:56">
       <c r="A16" s="1">
-        <v>0.51</v>
+        <v>0.45</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -2971,7 +2971,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.06651024023999999</v>
+        <v>0</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -2980,7 +2980,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>0</v>
+        <v>0.07731976824</v>
       </c>
       <c r="R16">
         <v>0</v>
@@ -3061,7 +3061,7 @@
         <v>0</v>
       </c>
       <c r="AR16">
-        <v>0</v>
+        <v>0.04650874104</v>
       </c>
       <c r="AS16">
         <v>0</v>
@@ -3102,13 +3102,13 @@
     </row>
     <row r="17" spans="1:56">
       <c r="A17" s="1">
-        <v>0.57</v>
+        <v>0.48</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>0.05193004572000001</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -3126,13 +3126,13 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.09607623552000001</v>
+        <v>0.04460717136</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.08272154496</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -3141,10 +3141,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.07690719168</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>0.06971946408</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -3243,7 +3243,7 @@
         <v>0</v>
       </c>
       <c r="AV17">
-        <v>0.08901325452</v>
+        <v>0</v>
       </c>
       <c r="AW17">
         <v>0</v>
@@ -3272,7 +3272,7 @@
     </row>
     <row r="18" spans="1:56">
       <c r="A18" s="1">
-        <v>0.6</v>
+        <v>0.51</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -3308,10 +3308,10 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.05853586224000001</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.06651024023999999</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -3442,7 +3442,7 @@
     </row>
     <row r="19" spans="1:56">
       <c r="A19" s="1">
-        <v>0.63</v>
+        <v>0.54</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -3595,7 +3595,7 @@
         <v>0</v>
       </c>
       <c r="AZ19">
-        <v>0.07992456576000001</v>
+        <v>0</v>
       </c>
       <c r="BA19">
         <v>0</v>
@@ -3612,7 +3612,7 @@
     </row>
     <row r="20" spans="1:56">
       <c r="A20" s="1">
-        <v>0.6599999999999999</v>
+        <v>0.57</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -3636,10 +3636,10 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.09607623552000001</v>
       </c>
       <c r="J20">
-        <v>0.0535660794</v>
+        <v>0</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -3753,7 +3753,7 @@
         <v>0</v>
       </c>
       <c r="AV20">
-        <v>0</v>
+        <v>0.08901325452</v>
       </c>
       <c r="AW20">
         <v>0</v>
@@ -3782,10 +3782,10 @@
     </row>
     <row r="21" spans="1:56">
       <c r="A21" s="1">
-        <v>0.6899999999999999</v>
+        <v>0.6</v>
       </c>
       <c r="B21">
-        <v>0.08653917816000001</v>
+        <v>0</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -3818,7 +3818,7 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.05853586224000001</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -3941,7 +3941,7 @@
         <v>0</v>
       </c>
       <c r="BB21">
-        <v>0.05537106036</v>
+        <v>0</v>
       </c>
       <c r="BC21">
         <v>0</v>
@@ -3952,7 +3952,7 @@
     </row>
     <row r="22" spans="1:56">
       <c r="A22" s="1">
-        <v>0.72</v>
+        <v>0.63</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -3985,43 +3985,43 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.37158244848</v>
+        <v>0</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.49929945588</v>
+        <v>0</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
       <c r="P22">
-        <v>0.58533134964</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>0.22507362432</v>
+        <v>0</v>
       </c>
       <c r="R22">
-        <v>0.2383722204</v>
+        <v>0</v>
       </c>
       <c r="S22">
-        <v>0.68309766648</v>
+        <v>0</v>
       </c>
       <c r="T22">
-        <v>0.10467611676</v>
+        <v>0</v>
       </c>
       <c r="U22">
-        <v>0.7386528318000001</v>
+        <v>0</v>
       </c>
       <c r="V22">
-        <v>0.74982675264</v>
+        <v>0</v>
       </c>
       <c r="W22">
-        <v>0.63862912704</v>
+        <v>0</v>
       </c>
       <c r="X22">
-        <v>0.56273998932</v>
+        <v>0</v>
       </c>
       <c r="Y22">
         <v>0</v>
@@ -4066,7 +4066,7 @@
         <v>0</v>
       </c>
       <c r="AM22">
-        <v>0.06580098252000001</v>
+        <v>0</v>
       </c>
       <c r="AN22">
         <v>0</v>
@@ -4105,7 +4105,7 @@
         <v>0</v>
       </c>
       <c r="AZ22">
-        <v>0</v>
+        <v>0.07992456576000001</v>
       </c>
       <c r="BA22">
         <v>0</v>
@@ -4122,7 +4122,7 @@
     </row>
     <row r="23" spans="1:56">
       <c r="A23" s="1">
-        <v>0.75</v>
+        <v>0.6599999999999999</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -4149,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.0535660794</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -4179,7 +4179,7 @@
         <v>0</v>
       </c>
       <c r="T23">
-        <v>0.11074549524</v>
+        <v>0</v>
       </c>
       <c r="U23">
         <v>0</v>
@@ -4194,10 +4194,10 @@
         <v>0</v>
       </c>
       <c r="Y23">
-        <v>0.5306410018800001</v>
+        <v>0</v>
       </c>
       <c r="Z23">
-        <v>0.15846618684</v>
+        <v>0</v>
       </c>
       <c r="AA23">
         <v>0</v>
@@ -4292,10 +4292,10 @@
     </row>
     <row r="24" spans="1:56">
       <c r="A24" s="1">
-        <v>0.78</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="B24">
-        <v>0</v>
+        <v>0.08653917816000001</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -4307,7 +4307,7 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.03698075616</v>
+        <v>0</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -4451,7 +4451,7 @@
         <v>0</v>
       </c>
       <c r="BB24">
-        <v>0</v>
+        <v>0.05537106036</v>
       </c>
       <c r="BC24">
         <v>0</v>
@@ -4462,10 +4462,10 @@
     </row>
     <row r="25" spans="1:56">
       <c r="A25" s="1">
-        <v>0.8099999999999999</v>
+        <v>0.72</v>
       </c>
       <c r="B25">
-        <v>0.249565116</v>
+        <v>0</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -4495,43 +4495,43 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.37158244848</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.49929945588</v>
       </c>
       <c r="O25">
         <v>0</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>0.58533134964</v>
       </c>
       <c r="Q25">
-        <v>0</v>
+        <v>0.22507362432</v>
       </c>
       <c r="R25">
-        <v>0</v>
+        <v>0.2383722204</v>
       </c>
       <c r="S25">
-        <v>0</v>
+        <v>0.68309766648</v>
       </c>
       <c r="T25">
-        <v>0</v>
+        <v>0.10467611676</v>
       </c>
       <c r="U25">
-        <v>0</v>
+        <v>0.7386528318000001</v>
       </c>
       <c r="V25">
-        <v>0</v>
+        <v>0.74982675264</v>
       </c>
       <c r="W25">
-        <v>0</v>
+        <v>0.63862912704</v>
       </c>
       <c r="X25">
-        <v>0</v>
+        <v>0.56273998932</v>
       </c>
       <c r="Y25">
         <v>0</v>
@@ -4576,7 +4576,7 @@
         <v>0</v>
       </c>
       <c r="AM25">
-        <v>0</v>
+        <v>0.06580098252000001</v>
       </c>
       <c r="AN25">
         <v>0</v>
@@ -4632,7 +4632,7 @@
     </row>
     <row r="26" spans="1:56">
       <c r="A26" s="1">
-        <v>0.84</v>
+        <v>0.75</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -4689,7 +4689,7 @@
         <v>0</v>
       </c>
       <c r="T26">
-        <v>0</v>
+        <v>0.11074549524</v>
       </c>
       <c r="U26">
         <v>0</v>
@@ -4704,13 +4704,13 @@
         <v>0</v>
       </c>
       <c r="Y26">
-        <v>0</v>
+        <v>0.5306410018800001</v>
       </c>
       <c r="Z26">
-        <v>0</v>
+        <v>0.15846618684</v>
       </c>
       <c r="AA26">
-        <v>0.14352812724</v>
+        <v>0</v>
       </c>
       <c r="AB26">
         <v>0</v>
@@ -4802,7 +4802,7 @@
     </row>
     <row r="27" spans="1:56">
       <c r="A27" s="1">
-        <v>0.87</v>
+        <v>0.78</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -4811,13 +4811,13 @@
         <v>0</v>
       </c>
       <c r="D27">
-        <v>0.11465750436</v>
+        <v>0</v>
       </c>
       <c r="E27">
         <v>0</v>
       </c>
       <c r="F27">
-        <v>0</v>
+        <v>0.03698075616</v>
       </c>
       <c r="G27">
         <v>0</v>
@@ -4835,7 +4835,7 @@
         <v>0</v>
       </c>
       <c r="L27">
-        <v>0.05391149748</v>
+        <v>0</v>
       </c>
       <c r="M27">
         <v>0</v>
@@ -4895,7 +4895,7 @@
         <v>0</v>
       </c>
       <c r="AF27">
-        <v>0.06093813324</v>
+        <v>0</v>
       </c>
       <c r="AG27">
         <v>0</v>
@@ -4934,7 +4934,7 @@
         <v>0</v>
       </c>
       <c r="AS27">
-        <v>0.06589530312</v>
+        <v>0</v>
       </c>
       <c r="AT27">
         <v>0</v>
@@ -4958,10 +4958,10 @@
         <v>0</v>
       </c>
       <c r="BA27">
-        <v>0.11604498528</v>
+        <v>0</v>
       </c>
       <c r="BB27">
-        <v>0.08795940852</v>
+        <v>0</v>
       </c>
       <c r="BC27">
         <v>0</v>
@@ -4972,67 +4972,67 @@
     </row>
     <row r="28" spans="1:56">
       <c r="A28" s="1">
-        <v>0.8999999999999999</v>
+        <v>0.8099999999999999</v>
       </c>
       <c r="B28">
-        <v>0</v>
+        <v>0.249565116</v>
       </c>
       <c r="C28">
-        <v>0.18354523224</v>
+        <v>0</v>
       </c>
       <c r="D28">
-        <v>0.22134848616</v>
+        <v>0</v>
       </c>
       <c r="E28">
         <v>0</v>
       </c>
       <c r="F28">
-        <v>0.150499443</v>
+        <v>0</v>
       </c>
       <c r="G28">
         <v>0</v>
       </c>
       <c r="H28">
-        <v>0.51567622272</v>
+        <v>0</v>
       </c>
       <c r="I28">
-        <v>0.86357557068</v>
+        <v>0</v>
       </c>
       <c r="J28">
-        <v>0.89283863364</v>
+        <v>0</v>
       </c>
       <c r="K28">
-        <v>0.4787124498000001</v>
+        <v>0</v>
       </c>
       <c r="L28">
-        <v>0.26052190584</v>
+        <v>0</v>
       </c>
       <c r="M28">
-        <v>0.52403380236</v>
+        <v>0</v>
       </c>
       <c r="N28">
         <v>0</v>
       </c>
       <c r="O28">
-        <v>0.20789106636</v>
+        <v>0</v>
       </c>
       <c r="P28">
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>0.28388392908</v>
+        <v>0</v>
       </c>
       <c r="R28">
         <v>0</v>
       </c>
       <c r="S28">
-        <v>0.10474764552</v>
+        <v>0</v>
       </c>
       <c r="T28">
-        <v>0.06625504908</v>
+        <v>0</v>
       </c>
       <c r="U28">
-        <v>0.06715217352</v>
+        <v>0</v>
       </c>
       <c r="V28">
         <v>0</v>
@@ -5041,13 +5041,13 @@
         <v>0</v>
       </c>
       <c r="X28">
-        <v>0.28141112508</v>
+        <v>0</v>
       </c>
       <c r="Y28">
-        <v>0.38044515504</v>
+        <v>0</v>
       </c>
       <c r="Z28">
-        <v>0.06256111139999999</v>
+        <v>0</v>
       </c>
       <c r="AA28">
         <v>0</v>
@@ -5056,82 +5056,82 @@
         <v>0</v>
       </c>
       <c r="AC28">
-        <v>0.12399939276</v>
+        <v>0</v>
       </c>
       <c r="AD28">
-        <v>0.12294527016</v>
+        <v>0</v>
       </c>
       <c r="AE28">
-        <v>0.09024595008</v>
+        <v>0</v>
       </c>
       <c r="AF28">
-        <v>0.41111932056</v>
+        <v>0</v>
       </c>
       <c r="AG28">
-        <v>0.12068428644</v>
+        <v>0</v>
       </c>
       <c r="AH28">
-        <v>0.06621604848</v>
+        <v>0</v>
       </c>
       <c r="AI28">
-        <v>0.12366487272</v>
+        <v>0</v>
       </c>
       <c r="AJ28">
-        <v>0.43016345184</v>
+        <v>0</v>
       </c>
       <c r="AK28">
-        <v>0.37141383312</v>
+        <v>0</v>
       </c>
       <c r="AL28">
-        <v>0.46524944268</v>
+        <v>0</v>
       </c>
       <c r="AM28">
-        <v>0.4486907283600001</v>
+        <v>0</v>
       </c>
       <c r="AN28">
-        <v>0.44209935036</v>
+        <v>0</v>
       </c>
       <c r="AO28">
-        <v>0.3933069444</v>
+        <v>0</v>
       </c>
       <c r="AP28">
-        <v>0.311371386</v>
+        <v>0</v>
       </c>
       <c r="AQ28">
-        <v>0.30087956076</v>
+        <v>0</v>
       </c>
       <c r="AR28">
-        <v>0.30136045752</v>
+        <v>0</v>
       </c>
       <c r="AS28">
-        <v>0.3361772059200001</v>
+        <v>0</v>
       </c>
       <c r="AT28">
-        <v>0.34302731556</v>
+        <v>0</v>
       </c>
       <c r="AU28">
-        <v>0.3430454052</v>
+        <v>0</v>
       </c>
       <c r="AV28">
-        <v>0.4187831874</v>
+        <v>0</v>
       </c>
       <c r="AW28">
-        <v>0.45888554052</v>
+        <v>0</v>
       </c>
       <c r="AX28">
-        <v>0.28291654824</v>
+        <v>0</v>
       </c>
       <c r="AY28">
-        <v>0.19952336316</v>
+        <v>0</v>
       </c>
       <c r="AZ28">
-        <v>0.41062907472</v>
+        <v>0</v>
       </c>
       <c r="BA28">
-        <v>0.14013479844</v>
+        <v>0</v>
       </c>
       <c r="BB28">
-        <v>0.40796414436</v>
+        <v>0</v>
       </c>
       <c r="BC28">
         <v>0</v>
@@ -5142,341 +5142,1191 @@
     </row>
     <row r="29" spans="1:56">
       <c r="A29" s="1">
-        <v>0.9299999999999999</v>
+        <v>0.84</v>
       </c>
       <c r="B29">
         <v>0</v>
       </c>
       <c r="C29">
-        <v>18.8638021866</v>
+        <v>0</v>
       </c>
       <c r="D29">
-        <v>22.13590168752</v>
+        <v>0</v>
       </c>
       <c r="E29">
-        <v>18.1715622816</v>
+        <v>0</v>
       </c>
       <c r="F29">
-        <v>16.33293248904</v>
+        <v>0</v>
       </c>
       <c r="G29">
-        <v>14.3358012708</v>
+        <v>0</v>
       </c>
       <c r="H29">
-        <v>12.85385132724</v>
+        <v>0</v>
       </c>
       <c r="I29">
-        <v>12.53787704064</v>
+        <v>0</v>
       </c>
       <c r="J29">
-        <v>11.53294492932</v>
+        <v>0</v>
       </c>
       <c r="K29">
-        <v>10.74164189604</v>
+        <v>0</v>
       </c>
       <c r="L29">
-        <v>9.93198374208</v>
+        <v>0</v>
       </c>
       <c r="M29">
-        <v>10.18463953116</v>
+        <v>0</v>
       </c>
       <c r="N29">
-        <v>10.53945730896</v>
+        <v>0</v>
       </c>
       <c r="O29">
-        <v>10.01599977504</v>
+        <v>0</v>
       </c>
       <c r="P29">
-        <v>9.07271505468</v>
+        <v>0</v>
       </c>
       <c r="Q29">
-        <v>8.868107672880001</v>
+        <v>0</v>
       </c>
       <c r="R29">
-        <v>8.25978737808</v>
+        <v>0</v>
       </c>
       <c r="S29">
-        <v>8.159430370319999</v>
+        <v>0</v>
       </c>
       <c r="T29">
-        <v>7.982647510200001</v>
+        <v>0</v>
       </c>
       <c r="U29">
-        <v>8.25316546344</v>
+        <v>0</v>
       </c>
       <c r="V29">
-        <v>8.47794284916</v>
+        <v>0</v>
       </c>
       <c r="W29">
-        <v>8.599878031440001</v>
+        <v>0</v>
       </c>
       <c r="X29">
-        <v>8.547617835960001</v>
+        <v>0</v>
       </c>
       <c r="Y29">
-        <v>9.255940150080001</v>
+        <v>0</v>
       </c>
       <c r="Z29">
-        <v>9.4073106618</v>
+        <v>0</v>
       </c>
       <c r="AA29">
-        <v>8.69138140512</v>
+        <v>0.14352812724</v>
       </c>
       <c r="AB29">
-        <v>8.042496060720001</v>
+        <v>0</v>
       </c>
       <c r="AC29">
-        <v>7.89558566868</v>
+        <v>0</v>
       </c>
       <c r="AD29">
-        <v>7.36904459796</v>
+        <v>0</v>
       </c>
       <c r="AE29">
-        <v>6.88349100036</v>
+        <v>0</v>
       </c>
       <c r="AF29">
-        <v>6.552747435480001</v>
+        <v>0</v>
       </c>
       <c r="AG29">
-        <v>6.15534277272</v>
+        <v>0</v>
       </c>
       <c r="AH29">
-        <v>5.750141087879999</v>
+        <v>0</v>
       </c>
       <c r="AI29">
-        <v>5.832969234479999</v>
+        <v>0</v>
       </c>
       <c r="AJ29">
-        <v>5.460451103520001</v>
+        <v>0</v>
       </c>
       <c r="AK29">
-        <v>5.32311422472</v>
+        <v>0</v>
       </c>
       <c r="AL29">
-        <v>5.26472346684</v>
+        <v>0</v>
       </c>
       <c r="AM29">
-        <v>5.488854604320001</v>
+        <v>0</v>
       </c>
       <c r="AN29">
-        <v>5.53460131236</v>
+        <v>0</v>
       </c>
       <c r="AO29">
-        <v>5.55489191388</v>
+        <v>0</v>
       </c>
       <c r="AP29">
-        <v>5.400494070480001</v>
+        <v>0</v>
       </c>
       <c r="AQ29">
-        <v>5.501823050640001</v>
+        <v>0</v>
       </c>
       <c r="AR29">
-        <v>5.58993143592</v>
+        <v>0</v>
       </c>
       <c r="AS29">
-        <v>5.72834489724</v>
+        <v>0</v>
       </c>
       <c r="AT29">
-        <v>5.962092144360001</v>
+        <v>0</v>
       </c>
       <c r="AU29">
-        <v>6.658039983000001</v>
+        <v>0</v>
       </c>
       <c r="AV29">
-        <v>7.403185889160001</v>
+        <v>0</v>
       </c>
       <c r="AW29">
-        <v>8.121808787280001</v>
+        <v>0</v>
       </c>
       <c r="AX29">
-        <v>9.16670284956</v>
+        <v>0</v>
       </c>
       <c r="AY29">
-        <v>9.678154228559999</v>
+        <v>0</v>
       </c>
       <c r="AZ29">
-        <v>10.16771044944</v>
+        <v>0</v>
       </c>
       <c r="BA29">
-        <v>10.3026172866</v>
+        <v>0</v>
       </c>
       <c r="BB29">
-        <v>0.44074827</v>
+        <v>0</v>
       </c>
       <c r="BC29">
-        <v>7.052358177</v>
+        <v>0</v>
       </c>
       <c r="BD29">
-        <v>2.69703371772</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:56">
       <c r="A30" s="1">
+        <v>0.87</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>0.11465750436</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>0.05391149748</v>
+      </c>
+      <c r="M30">
+        <v>0</v>
+      </c>
+      <c r="N30">
+        <v>0</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>0</v>
+      </c>
+      <c r="R30">
+        <v>0</v>
+      </c>
+      <c r="S30">
+        <v>0</v>
+      </c>
+      <c r="T30">
+        <v>0</v>
+      </c>
+      <c r="U30">
+        <v>0</v>
+      </c>
+      <c r="V30">
+        <v>0</v>
+      </c>
+      <c r="W30">
+        <v>0</v>
+      </c>
+      <c r="X30">
+        <v>0</v>
+      </c>
+      <c r="Y30">
+        <v>0</v>
+      </c>
+      <c r="Z30">
+        <v>0</v>
+      </c>
+      <c r="AA30">
+        <v>0</v>
+      </c>
+      <c r="AB30">
+        <v>0</v>
+      </c>
+      <c r="AC30">
+        <v>0</v>
+      </c>
+      <c r="AD30">
+        <v>0</v>
+      </c>
+      <c r="AE30">
+        <v>0</v>
+      </c>
+      <c r="AF30">
+        <v>0.06093813324</v>
+      </c>
+      <c r="AG30">
+        <v>0</v>
+      </c>
+      <c r="AH30">
+        <v>0</v>
+      </c>
+      <c r="AI30">
+        <v>0</v>
+      </c>
+      <c r="AJ30">
+        <v>0</v>
+      </c>
+      <c r="AK30">
+        <v>0</v>
+      </c>
+      <c r="AL30">
+        <v>0</v>
+      </c>
+      <c r="AM30">
+        <v>0</v>
+      </c>
+      <c r="AN30">
+        <v>0</v>
+      </c>
+      <c r="AO30">
+        <v>0</v>
+      </c>
+      <c r="AP30">
+        <v>0</v>
+      </c>
+      <c r="AQ30">
+        <v>0</v>
+      </c>
+      <c r="AR30">
+        <v>0</v>
+      </c>
+      <c r="AS30">
+        <v>0.06589530312</v>
+      </c>
+      <c r="AT30">
+        <v>0</v>
+      </c>
+      <c r="AU30">
+        <v>0</v>
+      </c>
+      <c r="AV30">
+        <v>0</v>
+      </c>
+      <c r="AW30">
+        <v>0</v>
+      </c>
+      <c r="AX30">
+        <v>0</v>
+      </c>
+      <c r="AY30">
+        <v>0</v>
+      </c>
+      <c r="AZ30">
+        <v>0</v>
+      </c>
+      <c r="BA30">
+        <v>0.11604498528</v>
+      </c>
+      <c r="BB30">
+        <v>0.08795940852</v>
+      </c>
+      <c r="BC30">
+        <v>0</v>
+      </c>
+      <c r="BD30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:56">
+      <c r="A31" s="1">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <v>0.18354523224</v>
+      </c>
+      <c r="D31">
+        <v>0.22134848616</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>0.150499443</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>0.51567622272</v>
+      </c>
+      <c r="I31">
+        <v>0.86357557068</v>
+      </c>
+      <c r="J31">
+        <v>0.89283863364</v>
+      </c>
+      <c r="K31">
+        <v>0.4787124498000001</v>
+      </c>
+      <c r="L31">
+        <v>0.26052190584</v>
+      </c>
+      <c r="M31">
+        <v>0.52403380236</v>
+      </c>
+      <c r="N31">
+        <v>0</v>
+      </c>
+      <c r="O31">
+        <v>0.20789106636</v>
+      </c>
+      <c r="P31">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>0.28388392908</v>
+      </c>
+      <c r="R31">
+        <v>0</v>
+      </c>
+      <c r="S31">
+        <v>0.10474764552</v>
+      </c>
+      <c r="T31">
+        <v>0.06625504908</v>
+      </c>
+      <c r="U31">
+        <v>0.06715217352</v>
+      </c>
+      <c r="V31">
+        <v>0</v>
+      </c>
+      <c r="W31">
+        <v>0</v>
+      </c>
+      <c r="X31">
+        <v>0.28141112508</v>
+      </c>
+      <c r="Y31">
+        <v>0.38044515504</v>
+      </c>
+      <c r="Z31">
+        <v>0.06256111139999999</v>
+      </c>
+      <c r="AA31">
+        <v>0</v>
+      </c>
+      <c r="AB31">
+        <v>0</v>
+      </c>
+      <c r="AC31">
+        <v>0.12399939276</v>
+      </c>
+      <c r="AD31">
+        <v>0.12294527016</v>
+      </c>
+      <c r="AE31">
+        <v>0.09024595008</v>
+      </c>
+      <c r="AF31">
+        <v>0.41111932056</v>
+      </c>
+      <c r="AG31">
+        <v>0.12068428644</v>
+      </c>
+      <c r="AH31">
+        <v>0.06621604848</v>
+      </c>
+      <c r="AI31">
+        <v>0.12366487272</v>
+      </c>
+      <c r="AJ31">
+        <v>0.43016345184</v>
+      </c>
+      <c r="AK31">
+        <v>0.37141383312</v>
+      </c>
+      <c r="AL31">
+        <v>0.46524944268</v>
+      </c>
+      <c r="AM31">
+        <v>0.4486907283600001</v>
+      </c>
+      <c r="AN31">
+        <v>0.44209935036</v>
+      </c>
+      <c r="AO31">
+        <v>0.3933069444</v>
+      </c>
+      <c r="AP31">
+        <v>0.311371386</v>
+      </c>
+      <c r="AQ31">
+        <v>0.30087956076</v>
+      </c>
+      <c r="AR31">
+        <v>0.30136045752</v>
+      </c>
+      <c r="AS31">
+        <v>0.3361772059200001</v>
+      </c>
+      <c r="AT31">
+        <v>0.34302731556</v>
+      </c>
+      <c r="AU31">
+        <v>0.3430454052</v>
+      </c>
+      <c r="AV31">
+        <v>0.4187831874</v>
+      </c>
+      <c r="AW31">
+        <v>0.45888554052</v>
+      </c>
+      <c r="AX31">
+        <v>0.28291654824</v>
+      </c>
+      <c r="AY31">
+        <v>0.19952336316</v>
+      </c>
+      <c r="AZ31">
+        <v>0.41062907472</v>
+      </c>
+      <c r="BA31">
+        <v>0.14013479844</v>
+      </c>
+      <c r="BB31">
+        <v>0.40796414436</v>
+      </c>
+      <c r="BC31">
+        <v>0</v>
+      </c>
+      <c r="BD31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:56">
+      <c r="A32" s="1">
+        <v>0.9299999999999999</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <v>18.8638021866</v>
+      </c>
+      <c r="D32">
+        <v>22.13590168752</v>
+      </c>
+      <c r="E32">
+        <v>18.1715622816</v>
+      </c>
+      <c r="F32">
+        <v>16.33293248904</v>
+      </c>
+      <c r="G32">
+        <v>14.3358012708</v>
+      </c>
+      <c r="H32">
+        <v>12.85385132724</v>
+      </c>
+      <c r="I32">
+        <v>12.53787704064</v>
+      </c>
+      <c r="J32">
+        <v>11.53294492932</v>
+      </c>
+      <c r="K32">
+        <v>10.74164189604</v>
+      </c>
+      <c r="L32">
+        <v>9.93198374208</v>
+      </c>
+      <c r="M32">
+        <v>10.18463953116</v>
+      </c>
+      <c r="N32">
+        <v>10.53945730896</v>
+      </c>
+      <c r="O32">
+        <v>10.01599977504</v>
+      </c>
+      <c r="P32">
+        <v>9.07271505468</v>
+      </c>
+      <c r="Q32">
+        <v>8.868107672880001</v>
+      </c>
+      <c r="R32">
+        <v>8.25978737808</v>
+      </c>
+      <c r="S32">
+        <v>8.159430370319999</v>
+      </c>
+      <c r="T32">
+        <v>7.982647510200001</v>
+      </c>
+      <c r="U32">
+        <v>8.25316546344</v>
+      </c>
+      <c r="V32">
+        <v>8.47794284916</v>
+      </c>
+      <c r="W32">
+        <v>8.599878031440001</v>
+      </c>
+      <c r="X32">
+        <v>8.547617835960001</v>
+      </c>
+      <c r="Y32">
+        <v>9.255940150080001</v>
+      </c>
+      <c r="Z32">
+        <v>9.4073106618</v>
+      </c>
+      <c r="AA32">
+        <v>8.69138140512</v>
+      </c>
+      <c r="AB32">
+        <v>8.042496060720001</v>
+      </c>
+      <c r="AC32">
+        <v>7.89558566868</v>
+      </c>
+      <c r="AD32">
+        <v>7.36904459796</v>
+      </c>
+      <c r="AE32">
+        <v>6.88349100036</v>
+      </c>
+      <c r="AF32">
+        <v>6.552747435480001</v>
+      </c>
+      <c r="AG32">
+        <v>6.15534277272</v>
+      </c>
+      <c r="AH32">
+        <v>5.750141087879999</v>
+      </c>
+      <c r="AI32">
+        <v>5.832969234479999</v>
+      </c>
+      <c r="AJ32">
+        <v>5.460451103520001</v>
+      </c>
+      <c r="AK32">
+        <v>5.32311422472</v>
+      </c>
+      <c r="AL32">
+        <v>5.26472346684</v>
+      </c>
+      <c r="AM32">
+        <v>5.488854604320001</v>
+      </c>
+      <c r="AN32">
+        <v>5.53460131236</v>
+      </c>
+      <c r="AO32">
+        <v>5.55489191388</v>
+      </c>
+      <c r="AP32">
+        <v>5.400494070480001</v>
+      </c>
+      <c r="AQ32">
+        <v>5.501823050640001</v>
+      </c>
+      <c r="AR32">
+        <v>5.58993143592</v>
+      </c>
+      <c r="AS32">
+        <v>5.72834489724</v>
+      </c>
+      <c r="AT32">
+        <v>5.962092144360001</v>
+      </c>
+      <c r="AU32">
+        <v>6.658039983000001</v>
+      </c>
+      <c r="AV32">
+        <v>7.403185889160001</v>
+      </c>
+      <c r="AW32">
+        <v>8.121808787280001</v>
+      </c>
+      <c r="AX32">
+        <v>9.16670284956</v>
+      </c>
+      <c r="AY32">
+        <v>9.678154228559999</v>
+      </c>
+      <c r="AZ32">
+        <v>10.16771044944</v>
+      </c>
+      <c r="BA32">
+        <v>10.3026172866</v>
+      </c>
+      <c r="BB32">
+        <v>0.44074827</v>
+      </c>
+      <c r="BC32">
+        <v>7.052358177</v>
+      </c>
+      <c r="BD32">
+        <v>2.69703371772</v>
+      </c>
+    </row>
+    <row r="33" spans="1:56">
+      <c r="A33" s="1">
         <v>0.96</v>
       </c>
-      <c r="B30">
+      <c r="B33">
         <v>1.76460604524</v>
       </c>
-      <c r="C30">
-        <v>0</v>
-      </c>
-      <c r="D30">
-        <v>0</v>
-      </c>
-      <c r="E30">
-        <v>0</v>
-      </c>
-      <c r="F30">
-        <v>0</v>
-      </c>
-      <c r="G30">
-        <v>0</v>
-      </c>
-      <c r="H30">
-        <v>0</v>
-      </c>
-      <c r="I30">
-        <v>0</v>
-      </c>
-      <c r="J30">
-        <v>0</v>
-      </c>
-      <c r="K30">
-        <v>0</v>
-      </c>
-      <c r="L30">
-        <v>0</v>
-      </c>
-      <c r="M30">
-        <v>0</v>
-      </c>
-      <c r="N30">
-        <v>0</v>
-      </c>
-      <c r="O30">
-        <v>0</v>
-      </c>
-      <c r="P30">
-        <v>0</v>
-      </c>
-      <c r="Q30">
-        <v>0</v>
-      </c>
-      <c r="R30">
-        <v>0</v>
-      </c>
-      <c r="S30">
-        <v>0</v>
-      </c>
-      <c r="T30">
-        <v>0</v>
-      </c>
-      <c r="U30">
-        <v>0</v>
-      </c>
-      <c r="V30">
-        <v>0</v>
-      </c>
-      <c r="W30">
-        <v>0</v>
-      </c>
-      <c r="X30">
-        <v>0</v>
-      </c>
-      <c r="Y30">
-        <v>0</v>
-      </c>
-      <c r="Z30">
-        <v>0</v>
-      </c>
-      <c r="AA30">
-        <v>0</v>
-      </c>
-      <c r="AB30">
-        <v>0</v>
-      </c>
-      <c r="AC30">
-        <v>0</v>
-      </c>
-      <c r="AD30">
-        <v>0</v>
-      </c>
-      <c r="AE30">
-        <v>0</v>
-      </c>
-      <c r="AF30">
-        <v>0</v>
-      </c>
-      <c r="AG30">
-        <v>0</v>
-      </c>
-      <c r="AH30">
-        <v>0</v>
-      </c>
-      <c r="AI30">
-        <v>0</v>
-      </c>
-      <c r="AJ30">
-        <v>0</v>
-      </c>
-      <c r="AK30">
-        <v>0</v>
-      </c>
-      <c r="AL30">
-        <v>0</v>
-      </c>
-      <c r="AM30">
-        <v>0</v>
-      </c>
-      <c r="AN30">
-        <v>0</v>
-      </c>
-      <c r="AO30">
-        <v>0</v>
-      </c>
-      <c r="AP30">
-        <v>0</v>
-      </c>
-      <c r="AQ30">
-        <v>0</v>
-      </c>
-      <c r="AR30">
-        <v>0</v>
-      </c>
-      <c r="AS30">
-        <v>0</v>
-      </c>
-      <c r="AT30">
-        <v>0</v>
-      </c>
-      <c r="AU30">
-        <v>0</v>
-      </c>
-      <c r="AV30">
-        <v>0</v>
-      </c>
-      <c r="AW30">
-        <v>0</v>
-      </c>
-      <c r="AX30">
-        <v>0</v>
-      </c>
-      <c r="AY30">
-        <v>0</v>
-      </c>
-      <c r="AZ30">
-        <v>0</v>
-      </c>
-      <c r="BA30">
-        <v>0</v>
-      </c>
-      <c r="BB30">
-        <v>0</v>
-      </c>
-      <c r="BC30">
-        <v>0</v>
-      </c>
-      <c r="BD30">
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+      <c r="M33">
+        <v>0</v>
+      </c>
+      <c r="N33">
+        <v>0</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33">
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <v>0</v>
+      </c>
+      <c r="R33">
+        <v>0</v>
+      </c>
+      <c r="S33">
+        <v>0</v>
+      </c>
+      <c r="T33">
+        <v>0</v>
+      </c>
+      <c r="U33">
+        <v>0</v>
+      </c>
+      <c r="V33">
+        <v>0</v>
+      </c>
+      <c r="W33">
+        <v>0</v>
+      </c>
+      <c r="X33">
+        <v>0</v>
+      </c>
+      <c r="Y33">
+        <v>0</v>
+      </c>
+      <c r="Z33">
+        <v>0</v>
+      </c>
+      <c r="AA33">
+        <v>0</v>
+      </c>
+      <c r="AB33">
+        <v>0</v>
+      </c>
+      <c r="AC33">
+        <v>0</v>
+      </c>
+      <c r="AD33">
+        <v>0</v>
+      </c>
+      <c r="AE33">
+        <v>0</v>
+      </c>
+      <c r="AF33">
+        <v>0</v>
+      </c>
+      <c r="AG33">
+        <v>0</v>
+      </c>
+      <c r="AH33">
+        <v>0</v>
+      </c>
+      <c r="AI33">
+        <v>0</v>
+      </c>
+      <c r="AJ33">
+        <v>0</v>
+      </c>
+      <c r="AK33">
+        <v>0</v>
+      </c>
+      <c r="AL33">
+        <v>0</v>
+      </c>
+      <c r="AM33">
+        <v>0</v>
+      </c>
+      <c r="AN33">
+        <v>0</v>
+      </c>
+      <c r="AO33">
+        <v>0</v>
+      </c>
+      <c r="AP33">
+        <v>0</v>
+      </c>
+      <c r="AQ33">
+        <v>0</v>
+      </c>
+      <c r="AR33">
+        <v>0</v>
+      </c>
+      <c r="AS33">
+        <v>0</v>
+      </c>
+      <c r="AT33">
+        <v>0</v>
+      </c>
+      <c r="AU33">
+        <v>0</v>
+      </c>
+      <c r="AV33">
+        <v>0</v>
+      </c>
+      <c r="AW33">
+        <v>0</v>
+      </c>
+      <c r="AX33">
+        <v>0</v>
+      </c>
+      <c r="AY33">
+        <v>0</v>
+      </c>
+      <c r="AZ33">
+        <v>0</v>
+      </c>
+      <c r="BA33">
+        <v>0</v>
+      </c>
+      <c r="BB33">
+        <v>0</v>
+      </c>
+      <c r="BC33">
+        <v>0</v>
+      </c>
+      <c r="BD33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:56">
+      <c r="A34" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+      <c r="M34">
+        <v>0</v>
+      </c>
+      <c r="N34">
+        <v>0</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>0</v>
+      </c>
+      <c r="R34">
+        <v>0</v>
+      </c>
+      <c r="S34">
+        <v>0</v>
+      </c>
+      <c r="T34">
+        <v>0</v>
+      </c>
+      <c r="U34">
+        <v>0</v>
+      </c>
+      <c r="V34">
+        <v>0</v>
+      </c>
+      <c r="W34">
+        <v>0</v>
+      </c>
+      <c r="X34">
+        <v>0</v>
+      </c>
+      <c r="Y34">
+        <v>0</v>
+      </c>
+      <c r="Z34">
+        <v>0</v>
+      </c>
+      <c r="AA34">
+        <v>0</v>
+      </c>
+      <c r="AB34">
+        <v>0</v>
+      </c>
+      <c r="AC34">
+        <v>0</v>
+      </c>
+      <c r="AD34">
+        <v>0</v>
+      </c>
+      <c r="AE34">
+        <v>0</v>
+      </c>
+      <c r="AF34">
+        <v>0</v>
+      </c>
+      <c r="AG34">
+        <v>0</v>
+      </c>
+      <c r="AH34">
+        <v>0</v>
+      </c>
+      <c r="AI34">
+        <v>0</v>
+      </c>
+      <c r="AJ34">
+        <v>0</v>
+      </c>
+      <c r="AK34">
+        <v>0</v>
+      </c>
+      <c r="AL34">
+        <v>0</v>
+      </c>
+      <c r="AM34">
+        <v>0</v>
+      </c>
+      <c r="AN34">
+        <v>0</v>
+      </c>
+      <c r="AO34">
+        <v>0</v>
+      </c>
+      <c r="AP34">
+        <v>0</v>
+      </c>
+      <c r="AQ34">
+        <v>0</v>
+      </c>
+      <c r="AR34">
+        <v>0</v>
+      </c>
+      <c r="AS34">
+        <v>0</v>
+      </c>
+      <c r="AT34">
+        <v>0</v>
+      </c>
+      <c r="AU34">
+        <v>0</v>
+      </c>
+      <c r="AV34">
+        <v>0</v>
+      </c>
+      <c r="AW34">
+        <v>0</v>
+      </c>
+      <c r="AX34">
+        <v>0</v>
+      </c>
+      <c r="AY34">
+        <v>0</v>
+      </c>
+      <c r="AZ34">
+        <v>0</v>
+      </c>
+      <c r="BA34">
+        <v>0</v>
+      </c>
+      <c r="BB34">
+        <v>0</v>
+      </c>
+      <c r="BC34">
+        <v>0</v>
+      </c>
+      <c r="BD34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:56">
+      <c r="A35" s="1">
+        <v>1.02</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+      <c r="M35">
+        <v>0</v>
+      </c>
+      <c r="N35">
+        <v>0</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>0</v>
+      </c>
+      <c r="R35">
+        <v>0</v>
+      </c>
+      <c r="S35">
+        <v>0</v>
+      </c>
+      <c r="T35">
+        <v>0</v>
+      </c>
+      <c r="U35">
+        <v>0</v>
+      </c>
+      <c r="V35">
+        <v>0</v>
+      </c>
+      <c r="W35">
+        <v>0</v>
+      </c>
+      <c r="X35">
+        <v>0</v>
+      </c>
+      <c r="Y35">
+        <v>0</v>
+      </c>
+      <c r="Z35">
+        <v>0</v>
+      </c>
+      <c r="AA35">
+        <v>0</v>
+      </c>
+      <c r="AB35">
+        <v>0</v>
+      </c>
+      <c r="AC35">
+        <v>0</v>
+      </c>
+      <c r="AD35">
+        <v>0</v>
+      </c>
+      <c r="AE35">
+        <v>0</v>
+      </c>
+      <c r="AF35">
+        <v>0</v>
+      </c>
+      <c r="AG35">
+        <v>0</v>
+      </c>
+      <c r="AH35">
+        <v>0</v>
+      </c>
+      <c r="AI35">
+        <v>0</v>
+      </c>
+      <c r="AJ35">
+        <v>0</v>
+      </c>
+      <c r="AK35">
+        <v>0</v>
+      </c>
+      <c r="AL35">
+        <v>0</v>
+      </c>
+      <c r="AM35">
+        <v>0</v>
+      </c>
+      <c r="AN35">
+        <v>0</v>
+      </c>
+      <c r="AO35">
+        <v>0</v>
+      </c>
+      <c r="AP35">
+        <v>0</v>
+      </c>
+      <c r="AQ35">
+        <v>0</v>
+      </c>
+      <c r="AR35">
+        <v>0</v>
+      </c>
+      <c r="AS35">
+        <v>0</v>
+      </c>
+      <c r="AT35">
+        <v>0</v>
+      </c>
+      <c r="AU35">
+        <v>0</v>
+      </c>
+      <c r="AV35">
+        <v>0</v>
+      </c>
+      <c r="AW35">
+        <v>0</v>
+      </c>
+      <c r="AX35">
+        <v>0</v>
+      </c>
+      <c r="AY35">
+        <v>0</v>
+      </c>
+      <c r="AZ35">
+        <v>0</v>
+      </c>
+      <c r="BA35">
+        <v>0</v>
+      </c>
+      <c r="BB35">
+        <v>0</v>
+      </c>
+      <c r="BC35">
+        <v>0</v>
+      </c>
+      <c r="BD35">
         <v>0</v>
       </c>
     </row>

--- a/Bin_data/Virginia/Virginia60-2.xlsx
+++ b/Bin_data/Virginia/Virginia60-2.xlsx
@@ -366,7 +366,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BD34"/>
+  <dimension ref="A1:BD35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5489,6 +5489,11 @@
         <v>0.99</v>
       </c>
     </row>
+    <row r="35" spans="1:56">
+      <c r="A35" s="1">
+        <v>1.02</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
